--- a/Employee_Personal_Details.xlsx
+++ b/Employee_Personal_Details.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,85 +462,85 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>920660</v>
+        <v>926772</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Divit Borah</t>
+          <t>Jayant Saran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>darshit65@example.net</t>
+          <t>dishani58@example.net</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>48076</v>
+        <v>82011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>196806</v>
+        <v>580612</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Darshit Kuruvilla</t>
+          <t>Amani Cheema</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dugalsaksham@example.com</t>
+          <t>suhana27@example.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>47157</v>
+        <v>86539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>922837</v>
+        <v>248887</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Khushi Dasgupta</t>
+          <t>Mishti Chaudry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>aainaram@example.com</t>
+          <t>pihu54@example.net</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>42120</v>
+        <v>96921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>515754</v>
+        <v>559097</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renee Chatterjee</t>
+          <t>Stuvan Gill</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>divyanshshah@example.com</t>
+          <t>baiju19@example.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -549,44 +549,44 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85943</v>
+        <v>116777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8043</v>
+        <v>70235</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bhamini Raman</t>
+          <t>Zeeshan Chander</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>banikraghav@example.net</t>
+          <t>aayushjha@example.org</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>91192</v>
+        <v>97146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34362</v>
+        <v>643710</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vaibhav Tripathi</t>
+          <t>Eva Bhandari</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sastrynitya@example.org</t>
+          <t>trishakumar@example.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,136 +595,136 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53627</v>
+        <v>92840</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>319440</v>
+        <v>93415</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mehul Gola</t>
+          <t>Rania Mand</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>savantnitara@example.net</t>
+          <t>divyansh43@example.net</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>112369</v>
+        <v>65871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42476</v>
+        <v>989490</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pihu Raman</t>
+          <t>Divyansh Choudhury</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>prerakkaran@example.org</t>
+          <t>zwalla@example.net</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>87491</v>
+        <v>95389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>702846</v>
+        <v>434522</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zain Bora</t>
+          <t>Ela Grover</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>devansh06@example.com</t>
+          <t>kibeaarav@example.net</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>110581</v>
+        <v>81103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>871050</v>
+        <v>173960</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kabir Dada</t>
+          <t>Pihu Khatri</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>vivaanbarad@example.com</t>
+          <t>jkumer@example.com</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>88518</v>
+        <v>72620</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>357352</v>
+        <v>821787</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Advik Singhal</t>
+          <t>Kiara Sen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>srastogi@example.net</t>
+          <t>aarnadara@example.net</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>57658</v>
+        <v>118607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>676769</v>
+        <v>333533</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Baiju Dhingra</t>
+          <t>Jivika Rajagopalan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>wdar@example.net</t>
+          <t>misha59@example.org</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -733,67 +733,67 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>75622</v>
+        <v>82942</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>689827</v>
+        <v>604910</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lagan Balay</t>
+          <t>Saanvi Char</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>darshitdayal@example.com</t>
+          <t>taranbala@example.org</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>104548</v>
+        <v>115689</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>837279</v>
+        <v>372088</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vardaniya Mannan</t>
+          <t>Zeeshan Varty</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>bathtushar@example.com</t>
+          <t>dvig@example.com</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>55994</v>
+        <v>84321</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>459340</v>
+        <v>184335</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mannat Saraf</t>
+          <t>Indrajit Din</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mahika87@example.com</t>
+          <t>vihaan91@example.com</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -802,90 +802,90 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>80532</v>
+        <v>118562</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>586381</v>
+        <v>995042</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jayant Edwin</t>
+          <t>Amira Dey</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ahana-88@example.net</t>
+          <t>amannan@example.net</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>69668</v>
+        <v>86606</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>293638</v>
+        <v>748396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anvi Tara</t>
+          <t>Rati Swamy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ivan16@example.net</t>
+          <t>vlal@example.com</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100434</v>
+        <v>70638</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>347983</v>
+        <v>29095</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ryan Mallick</t>
+          <t>Kiara Trivedi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>hbhatia@example.org</t>
+          <t>tanya15@example.org</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>81411</v>
+        <v>63476</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>940997</v>
+        <v>503272</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shray Bhat</t>
+          <t>Nitara Sabharwal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>trishachaudry@example.net</t>
+          <t>kashvi08@example.net</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -894,205 +894,205 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>76428</v>
+        <v>88249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>339726</v>
+        <v>833314</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kavya Magar</t>
+          <t>Prisha Chhabra</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>borahanvi@example.org</t>
+          <t>tejas29@example.org</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>71215</v>
+        <v>103400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>874810</v>
+        <v>85312</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Purab Lata</t>
+          <t>Hansh Dyal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>divij01@example.com</t>
+          <t>tanyabera@example.org</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>104244</v>
+        <v>84133</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>791991</v>
+        <v>81847</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Prisha Tripathi</t>
+          <t>Kimaya Garg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>shraydewan@example.org</t>
+          <t>bathanahi@example.com</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>43443</v>
+        <v>75402</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>282329</v>
+        <v>987536</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chirag Edwin</t>
+          <t>Anahi Mani</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>yuvraj-balakrishnan@example.com</t>
+          <t>ouppal@example.net</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>101133</v>
+        <v>105486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>169141</v>
+        <v>613845</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Samarth Uppal</t>
+          <t>Taimur Sarkar</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>shray46@example.org</t>
+          <t>guptavedika@example.org</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50694</v>
+        <v>102817</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>801089</v>
+        <v>631296</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rati Setty</t>
+          <t>Oorja Thakur</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>usami@example.org</t>
+          <t>ssengupta@example.com</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>86763</v>
+        <v>69458</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25360</v>
+        <v>479445</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mohanlal Cherian</t>
+          <t>Yasmin Zachariah</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>lavanya19@example.org</t>
+          <t>gbhalla@example.org</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>65859</v>
+        <v>51236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>531392</v>
+        <v>373012</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shlok Chakrabarti</t>
+          <t>Jayesh Bansal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>nirvi63@example.org</t>
+          <t>aaryahi05@example.com</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>57962</v>
+        <v>101512</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>85217</v>
+        <v>244385</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Advik Salvi</t>
+          <t>Kiaan Vora</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>prerakkapur@example.net</t>
+          <t>ranganathanprisha@example.com</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1101,113 +1101,113 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>119666</v>
+        <v>44079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>315392</v>
+        <v>510249</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rati Yohannan</t>
+          <t>Indranil Talwar</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>bijuacharya@example.org</t>
+          <t>jiyachhabra@example.net</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>66594</v>
+        <v>81104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29675</v>
+        <v>709086</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vaibhav Gola</t>
+          <t>Indrans Banik</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>atiwari@example.net</t>
+          <t>romil56@example.com</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>112740</v>
+        <v>45194</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>517749</v>
+        <v>699312</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Inaaya  Shetty</t>
+          <t>Sana Dhaliwal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>priyanshratti@example.com</t>
+          <t>lokesuhana@example.net</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>99819</v>
+        <v>86768</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>75399</v>
+        <v>992126</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jhanvi Mallick</t>
+          <t>Mishti Din</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>kanavkhurana@example.org</t>
+          <t>uthkarshshukla@example.com</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>119253</v>
+        <v>90107</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>254412</v>
+        <v>48472</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Siya Sama</t>
+          <t>Tiya Mane</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>dhingranakul@example.com</t>
+          <t>vihaanvarkey@example.com</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1216,90 +1216,90 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>112599</v>
+        <v>96953</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>308153</v>
+        <v>356804</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Saanvi Sule</t>
+          <t>Eva Krish</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>dishani91@example.com</t>
+          <t>deylakshay@example.net</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>91960</v>
+        <v>62271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>378262</v>
+        <v>969808</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Madhav Dhingra</t>
+          <t>Anvi Sodhi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gourvaibhav@example.org</t>
+          <t>kaulmishti@example.net</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>98769</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>660748</v>
+        <v>460600</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jiya Bawa</t>
+          <t>Vritika Dugal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>behlnishith@example.com</t>
+          <t>ojas22@example.com</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>47530</v>
+        <v>75113</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>977591</v>
+        <v>36983</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Yasmin Dar</t>
+          <t>Neysa Chahal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>kadekavya@example.net</t>
+          <t>aradhyaramachandran@example.com</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1308,44 +1308,44 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>45219</v>
+        <v>106815</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>337196</v>
+        <v>572082</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Advik Goda</t>
+          <t>Chirag Bora</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>navya53@example.com</t>
+          <t>shlok10@example.net</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>115545</v>
+        <v>82246</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>204628</v>
+        <v>411974</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Manjari Rao</t>
+          <t>Vritika Chhabra</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ukar@example.net</t>
+          <t>hshanker@example.org</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1354,21 +1354,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>110288</v>
+        <v>67631</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>140032</v>
+        <v>993093</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Charvi Anand</t>
+          <t>Oorja Lata</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>kiaramadan@example.net</t>
+          <t>guhavedika@example.com</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1377,44 +1377,44 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>93473</v>
+        <v>74843</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>126488</v>
+        <v>155681</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Shayak Barad</t>
+          <t>Anahita Sha</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>lsani@example.net</t>
+          <t>emiriyengar@example.com</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>105155</v>
+        <v>92662</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>584882</v>
+        <v>908026</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ahana  Bajaj</t>
+          <t>Kartik Raja</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>yanand@example.org</t>
+          <t>kalitaadah@example.org</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1423,136 +1423,136 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>81399</v>
+        <v>62872</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48391</v>
+        <v>127034</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Anvi Babu</t>
+          <t>Baiju Apte</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>stuvanhari@example.org</t>
+          <t>vkohli@example.com</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>67250</v>
+        <v>111510</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>804853</v>
+        <v>712903</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Rohan Krishnamurthy</t>
+          <t>Jivin Jani</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>krishnavivaan@example.net</t>
+          <t>ljayaraman@example.com</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>58374</v>
+        <v>114419</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>166534</v>
+        <v>257816</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Amani Zacharia</t>
+          <t>Elakshi Sinha</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>wdeo@example.net</t>
+          <t>gabahiran@example.com</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>79928</v>
+        <v>108185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>618976</v>
+        <v>57882</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Darshit Karnik</t>
+          <t>Raunak Ghosh</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>tarasinha@example.com</t>
+          <t>khushi71@example.com</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>71779</v>
+        <v>86758</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>332010</v>
+        <v>78038</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nitya Varma</t>
+          <t>Pihu Dube</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chiragchander@example.net</t>
+          <t>shraybajaj@example.net</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>72442</v>
+        <v>67550</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>926963</v>
+        <v>979350</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Divyansh Sachdev</t>
+          <t>Trisha Sampath</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>riaan62@example.org</t>
+          <t>bkarnik@example.org</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1561,205 +1561,205 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>62682</v>
+        <v>110289</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>293252</v>
+        <v>732662</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sana Dugar</t>
+          <t>Jivika Kalita</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>watwal@example.com</t>
+          <t>ritvik03@example.com</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>110449</v>
+        <v>82992</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>163799</v>
+        <v>943185</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lavanya Korpal</t>
+          <t>Sara Cheema</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>iyershaan@example.com</t>
+          <t>mamooty82@example.com</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100467</v>
+        <v>71997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>206343</v>
+        <v>503623</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mahika Sachdev</t>
+          <t>Romil Thaman</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>idhingra@example.com</t>
+          <t>samarth39@example.com</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>71893</v>
+        <v>82240</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>713950</v>
+        <v>806349</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Amani Chaudhuri</t>
+          <t>Stuvan Borde</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>charvi57@example.net</t>
+          <t>dchaudry@example.org</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>84235</v>
+        <v>117773</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>203796</v>
+        <v>532576</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Trisha Borah</t>
+          <t>Hridaan Raman</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>bandimishti@example.com</t>
+          <t>shalv64@example.com</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>80820</v>
+        <v>67971</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>193609</v>
+        <v>939047</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Divij Konda</t>
+          <t>Indrajit Jha</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>fchoudhry@example.net</t>
+          <t>jivika76@example.org</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>49269</v>
+        <v>49791</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>510839</v>
+        <v>377384</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Priyansh Deol</t>
+          <t>Ryan Kadakia</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>anahita10@example.net</t>
+          <t>siya14@example.org</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>70434</v>
+        <v>84988</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>40125</v>
+        <v>302302</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Stuvan Chad</t>
+          <t>Misha Doshi</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>karipranay@example.com</t>
+          <t>rkota@example.org</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52413</v>
+        <v>42511</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>910547</v>
+        <v>702042</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Samaira Kamdar</t>
+          <t>Tushar Dey</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>msarin@example.org</t>
+          <t>navyatella@example.org</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1768,159 +1768,159 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>72725</v>
+        <v>80589</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>82352</v>
+        <v>439090</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Damini Chawla</t>
+          <t>Misha Shukla</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>tusharbalan@example.com</t>
+          <t>kantdivyansh@example.net</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>70233</v>
+        <v>85793</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>170633</v>
+        <v>292128</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ivana Kohli</t>
+          <t>Kanav Kapoor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>badaldash@example.com</t>
+          <t>karmahika@example.net</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>57155</v>
+        <v>114105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>767187</v>
+        <v>706134</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Stuvan Ganesan</t>
+          <t>Saira Hans</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>urvi20@example.com</t>
+          <t>jiyengar@example.com</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>65600</v>
+        <v>105367</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>261149</v>
+        <v>180137</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Prisha Sood</t>
+          <t>Samiha Bahri</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>bhavsardivit@example.com</t>
+          <t>kibemadhav@example.com</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>114147</v>
+        <v>67883</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>891705</v>
+        <v>79191</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Shalv Sama</t>
+          <t>Aarav Yogi</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>yuvraj-50@example.com</t>
+          <t>chirag24@example.com</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>64515</v>
+        <v>97574</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>37832</v>
+        <v>389329</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Vivaan Saini</t>
+          <t>Myra Sehgal</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>azad01@example.net</t>
+          <t>amirasavant@example.org</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100383</v>
+        <v>110727</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>517582</v>
+        <v>483843</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kashvi Shanker</t>
+          <t>Vaibhav Ramesh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>hiranshan@example.net</t>
+          <t>qbhattacharyya@example.org</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1929,573 +1929,573 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>108869</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>600041</v>
+        <v>413338</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Raghav Tiwari</t>
+          <t>Hansh Shroff</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>lakshit05@example.net</t>
+          <t>ramanathandevansh@example.org</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>59614</v>
+        <v>110306</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>887636</v>
+        <v>988599</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kartik Deol</t>
+          <t>Anahi Saraf</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ramaaaina@example.net</t>
+          <t>aniruddhwali@example.net</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>65795</v>
+        <v>69018</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>839458</v>
+        <v>194907</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tarini Mani</t>
+          <t>Taran Dube</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>sbhattacharyya@example.com</t>
+          <t>osrinivasan@example.org</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>96107</v>
+        <v>69351</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>611768</v>
+        <v>595380</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Divit Gill</t>
+          <t>Zara Madan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>umangkala@example.net</t>
+          <t>pratta@example.org</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>68449</v>
+        <v>93479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>317158</v>
+        <v>416655</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Shlok Basak</t>
+          <t>Nishith Chander</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ayeshabala@example.org</t>
+          <t>somnakul@example.com</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>70124</v>
+        <v>64862</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>435703</v>
+        <v>506790</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jiya Divan</t>
+          <t>Ivana Iyer</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>lankaalia@example.com</t>
+          <t>kmalhotra@example.org</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>116742</v>
+        <v>64211</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>667309</v>
+        <v>250501</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Drishya Barad</t>
+          <t>Jayan Bora</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>jivindua@example.net</t>
+          <t>keyamadan@example.net</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>117378</v>
+        <v>82845</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>173980</v>
+        <v>320467</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Trisha Sengupta</t>
+          <t>Dhanush Dhaliwal</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chackoindrans@example.org</t>
+          <t>anvi00@example.org</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>58650</v>
+        <v>100663</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>187125</v>
+        <v>592493</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Adira Deol</t>
+          <t>Kanav Gole</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>varkeyshamik@example.net</t>
+          <t>gatik47@example.net</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>119090</v>
+        <v>74738</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>165446</v>
+        <v>28820</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Amani Varma</t>
+          <t>Nishith Dada</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>vardaniyasood@example.net</t>
+          <t>adiratank@example.net</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>66402</v>
+        <v>40569</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>931659</v>
+        <v>991164</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Samarth Krishnan</t>
+          <t>Aarush Yogi</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>siyagarde@example.net</t>
+          <t>bhattmannat@example.net</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>92722</v>
+        <v>50178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>94933</v>
+        <v>675496</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Navya Guha</t>
+          <t>Fateh Dani</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>hansh31@example.net</t>
+          <t>tejas55@example.com</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>87037</v>
+        <v>53101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>261812</v>
+        <v>718012</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Anahita Desai</t>
+          <t>Pranay Karpe</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>nayantarajayaraman@example.com</t>
+          <t>tbhattacharyya@example.net</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>74409</v>
+        <v>76806</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>313458</v>
+        <v>457217</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Yasmin Baria</t>
+          <t>Onkar Hari</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>elagoda@example.com</t>
+          <t>fsuresh@example.com</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>59495</v>
+        <v>118563</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>977927</v>
+        <v>60570</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Vivaan Wali</t>
+          <t>Madhup Badal</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ldhar@example.org</t>
+          <t>sanghvikhushi@example.net</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>64972</v>
+        <v>94208</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>640566</v>
+        <v>614030</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Himmat Trivedi</t>
+          <t>Suhana Bora</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gatikanand@example.org</t>
+          <t>adewan@example.net</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>74452</v>
+        <v>92540</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>299395</v>
+        <v>449944</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Vaibhav Keer</t>
+          <t>Dhanush Kalla</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>manjarichoudhury@example.net</t>
+          <t>mshenoy@example.com</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>76422</v>
+        <v>46195</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>347768</v>
+        <v>25446</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Adira Jayaraman</t>
+          <t>Purab Khanna</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>manjari78@example.com</t>
+          <t>anya82@example.org</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>93043</v>
+        <v>111803</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>646863</v>
+        <v>941169</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Saksham Chokshi</t>
+          <t>Alisha Chana</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>goleraunak@example.org</t>
+          <t>anviborde@example.org</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>82302</v>
+        <v>63754</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>425722</v>
+        <v>271460</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Divit Yogi</t>
+          <t>Mannat Kade</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>wchander@example.org</t>
+          <t>waliadhanush@example.net</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49975</v>
+        <v>86316</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>872330</v>
+        <v>30544</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Shayak Sengupta</t>
+          <t>Mahika Bhakta</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>pihu36@example.org</t>
+          <t>madhav18@example.net</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>71754</v>
+        <v>82702</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>804930</v>
+        <v>462108</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Madhav Chanda</t>
+          <t>Ojas Balay</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ivandeo@example.org</t>
+          <t>osekhon@example.org</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>72625</v>
+        <v>80300</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>849531</v>
+        <v>54634</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Kavya Mandal</t>
+          <t>Rasha Saha</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>sundaramhrishita@example.com</t>
+          <t>rheadatta@example.org</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>108653</v>
+        <v>115604</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>959328</v>
+        <v>332458</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Stuvan Bora</t>
+          <t>Lakshit Chander</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ivarughese@example.com</t>
+          <t>aarav44@example.com</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>95104</v>
+        <v>116646</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>584178</v>
+        <v>483474</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Emir Sant</t>
+          <t>Sahil Kurian</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>shankerzain@example.net</t>
+          <t>anvichandran@example.org</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2504,136 +2504,136 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>90614</v>
+        <v>112704</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>907747</v>
+        <v>152744</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hridaan Deo</t>
+          <t>Kavya Swaminathan</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>nirvaan06@example.org</t>
+          <t>vargheseshaan@example.net</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>94655</v>
+        <v>61734</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>210796</v>
+        <v>820785</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Indrans Bhardwaj</t>
+          <t>Tushar Sibal</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>wsrinivas@example.net</t>
+          <t>tejassani@example.org</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>47393</v>
+        <v>109502</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>880875</v>
+        <v>622744</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Kiara Kumar</t>
+          <t>Renee Saran</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>mamootykade@example.net</t>
+          <t>veerbassi@example.net</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>43931</v>
+        <v>102832</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>642201</v>
+        <v>37734</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Rohan Badal</t>
+          <t>Saksham Jaggi</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>elaanne@example.com</t>
+          <t>ldeo@example.org</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>80188</v>
+        <v>40202</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>355406</v>
+        <v>698766</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Reyansh Kohli</t>
+          <t>Ivan Iyer</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>hansh64@example.com</t>
+          <t>nityatoor@example.org</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>74824</v>
+        <v>90149</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>757150</v>
+        <v>727884</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Arnav Sundaram</t>
+          <t>Ira Tak</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ayeshadugar@example.net</t>
+          <t>akrishna@example.net</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2642,99 +2642,99 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>50950</v>
+        <v>54733</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>179586</v>
+        <v>549840</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pari Sampath</t>
+          <t>Hazel Doshi</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>jayan62@example.net</t>
+          <t>parinaaz94@example.net</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>108620</v>
+        <v>66024</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>631406</v>
+        <v>548284</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Faiyaz Kapur</t>
+          <t>Emir Raja</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>bhattneelofar@example.org</t>
+          <t>lavanya04@example.org</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>63199</v>
+        <v>101289</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>788681</v>
+        <v>530284</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gatik Bala</t>
+          <t>Gatik Rajagopal</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>vboase@example.com</t>
+          <t>pihu94@example.org</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>49861</v>
+        <v>117323</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>519706</v>
+        <v>969971</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Prerak Tandon</t>
+          <t>Divij Batra</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>mkant@example.com</t>
+          <t>raunakvarghese@example.com</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>59825</v>
+        <v>100867</v>
       </c>
     </row>
   </sheetData>
